--- a/pred_ohlcv/54_21/2020-01-26 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 QTUM ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>23372.26868687001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>23575.26868687001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>23830.90858687001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>30482.69420675002</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>29915.80190675002</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>25349.59640675002</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>25396.08290675002</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>24920.08290675002</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>24920.08290675002</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>25100.08290675002</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>22627.15530675002</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>21505.77700675002</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>44018.08320675002</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>44069.09910675001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>42469.09910675001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>41028.59910675001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>41141.42100675002</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>41516.82010675001</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>41518.82010675001</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>41393.73240675002</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>41615.33730675001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>40881.61510675001</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>40881.94830675001</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>40881.94830675001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>41080.52370675001</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>40020.05460675002</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>46869.64510675001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>46864.64510675001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>47267.17920675001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>47246.12340675</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>46382.20390675</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>46382.20390675</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>46397.67460675</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>46381.71500675</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>46381.71500675</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>46097.07260675</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>46097.07260675</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>46446.07250675</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>46446.07250675</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>46336.39710675</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>46336.39710675</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>46339.18000675</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>57507.25530675</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>57498.11960675</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>57680.51130675</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>57680.51130675</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>57650.54020675</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>57650.54020675</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>59249.94420675</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>58948.79210675</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>60704.56560674999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>60537.77960674999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>60525.85360675</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>60222.14330674999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>59956.93330674999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>59975.27680674999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>60025.08110675</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>60002.74110675</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>36862.43000675</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>36025.96790675</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>36222.96790675</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>36427.96790675</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>36468.11330675</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 QTUM ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>16982.84058687</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16494.22338687</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16394.22338687</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16528.92108687</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>16502.08358687</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16502.08358687</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>16502.08358687</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>16785.80858687</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>16619.29758687</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>16593.34738687</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>16593.34738687</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16593.34738687</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16382.76038687</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>16459.25338687</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>16459.25338687</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>15095.91918687</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>15144.18658687</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>15167.87058687</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>15982.24298687</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>15702.24298687</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>16401.94898687001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>16284.58238687001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>16106.22828687001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>16106.22828687001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>15947.87578687001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>17349.70768687001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>17349.70768687001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>17673.05828687001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>18321.87008687001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>22063.31078687001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>23663.53558687001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>23372.26868687001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>23575.26868687001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>23830.90858687001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>27223.70768687001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>27136.76668687001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>29915.80190675002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>25349.59640675002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>21967.79740675002</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>44018.08320675002</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>44069.09910675001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>42469.09910675001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>41028.59910675001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>41141.42100675002</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>46869.64510675001</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>46864.64510675001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>47267.17920675001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>47246.12340675</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>46382.20390675</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>46382.20390675</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>46397.67460675</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>46381.71500675</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>46381.71500675</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>46097.07260675</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>46097.07260675</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>46446.07250675</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>46446.07250675</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>46336.39710675</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>46336.39710675</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>46339.18000675</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>57507.25530675</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>57498.11960675</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>57680.51130675</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>57680.51130675</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>57680.51130675</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>57650.54020675</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>57650.54020675</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>59249.94420675</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>60788.83120675</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>60805.60610675</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>60704.56560674999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>60537.77960674999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>60525.85360675</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>60222.14330674999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>59956.93330674999</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>59975.27680674999</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>60066.92790675</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>60035.08110675</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
